--- a/stats/general/table_general.xlsx
+++ b/stats/general/table_general.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AABA903B1D31E8AAF634A930FF7A15619259AA00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E2E9C8-93AE-1D4E-AED3-727EEE63BB34}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_AABA903B1D31E8AAF634A930FF7A15619259AA00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553D0C32-08BF-FE4F-B47B-DA45D09B71C9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21620" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="pretty_table" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Austroplaca_X3</t>
   </si>
@@ -89,13 +103,49 @@
   </si>
   <si>
     <t>RH (%)</t>
+  </si>
+  <si>
+    <t>Austroplaca X3</t>
+  </si>
+  <si>
+    <t>Bryum X1</t>
+  </si>
+  <si>
+    <t>Bryum X2</t>
+  </si>
+  <si>
+    <t>Bryum X4</t>
+  </si>
+  <si>
+    <t>Austroplaca X4</t>
+  </si>
+  <si>
+    <t>Austroplaca X5</t>
+  </si>
+  <si>
+    <t>Austroplaca X6</t>
+  </si>
+  <si>
+    <t>Summer 19-20</t>
+  </si>
+  <si>
+    <t>Summer 20-21</t>
+  </si>
+  <si>
+    <t>Summer 21-22</t>
+  </si>
+  <si>
+    <t>Summer 22-23</t>
+  </si>
+  <si>
+    <t>St. error  Bryum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -103,13 +153,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,14 +199,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{65D40B97-AA3B-5C4C-814A-DDDCAD17267C}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{798B4F23-744D-024F-B655-CFCC5DF555A1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,391 +520,1407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>4991</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>4633</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4165</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>5421</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>4583.6666666666697</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1">
+        <f>STDEV(C2:E2)/SQRT(COUNT(C2:E2))</f>
+        <v>366.47752697509105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>11.773170098837101</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>10.928691057485899</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>9.8247352157195795</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>12.78748850046</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>10.812319643966401</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <f>STDEV(C3:E3)/SQRT(COUNT(C3:E3))</f>
+        <v>0.86447651021417182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>-16.6858231311775</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>-15.796933455994999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>-16.2554289623282</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>-16.441719151747002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>-16.441719151747002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1">
+        <f t="shared" ref="G3:G15" si="0">STDEV(C4:E4)/SQRT(COUNT(C4:E4))</f>
+        <v>0.19158270007838285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>-31.7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>-32.200000000000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-33.200000000000003</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-32.4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-32.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30550504633038983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>14.8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>10.8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>13.3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>13.033333333333299</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2197449642354588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.27170907633739599</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1.55823440535289</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.95527010804321899</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>-1.05598598044645</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.48583951098321898</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79031868476674094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>-7.9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>-6.7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>-5.4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>-19.2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>-10.4333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3993686415717024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>12.8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>10.5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>12.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>12.766666666666699</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2991450179936754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>175.083750751352</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>331.04985970213801</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>368.14645858343403</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>193.83637705220701</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>297.67756511259302</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>53.013468934741113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1360</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1335</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2116</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1472</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1641</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>240.77029163360945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.622</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.60899999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.12189276910499E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.24633275662933299</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.31707252320310803</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.45254693877551</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.28169083194982503</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.35043676464281398</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2066725666983428E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>42.225001294965097</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>47.080897906324203</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>66.824273709483805</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>26.818594355285001</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>46.907921990364301</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>11.548968722334314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>489.99799999999999</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>206.6</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>404.8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>170.3</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>260.566666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>72.8740084742915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
+      <c r="B16" s="2">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
+      <c r="B17" s="2">
+        <v>-53.4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
+      <c r="B18" s="2">
+        <v>6.45</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
+      <c r="B19" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E626A7-1DA1-9E44-A926-D72FDAFF78FD}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1735</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1349</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1334</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1334</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1598</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1275</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1268</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1268</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1176</v>
+      </c>
+      <c r="K3" s="7">
+        <v>933</v>
+      </c>
+      <c r="L3" s="7">
+        <v>899</v>
+      </c>
+      <c r="M3" s="7">
+        <v>899</v>
+      </c>
+      <c r="N3" s="7">
+        <v>483</v>
+      </c>
+      <c r="O3" s="7">
+        <v>673</v>
+      </c>
+      <c r="P3" s="7">
+        <v>475</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>59.724612736660902</v>
+      </c>
+      <c r="C4" s="7">
+        <v>46.437177300000002</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45.920826161790004</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45.9208262</v>
+      </c>
+      <c r="F4" s="7">
+        <v>55.4861111111111</v>
+      </c>
+      <c r="G4" s="7">
+        <v>44.2708333</v>
+      </c>
+      <c r="H4" s="7">
+        <v>44.0277777777778</v>
+      </c>
+      <c r="I4" s="7">
+        <v>44.027777800000003</v>
+      </c>
+      <c r="J4" s="7">
+        <v>40.8333333333333</v>
+      </c>
+      <c r="K4" s="7">
+        <v>32.3958333</v>
+      </c>
+      <c r="L4" s="7">
+        <v>31.2152777777778</v>
+      </c>
+      <c r="M4" s="7">
+        <v>31.215277799999999</v>
+      </c>
+      <c r="N4" s="7">
+        <v>16.776658562000701</v>
+      </c>
+      <c r="O4" s="7">
+        <v>23.3761723</v>
+      </c>
+      <c r="P4" s="7">
+        <v>16.498784300104202</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>16.498784300000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>-3.2264027538726401</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-3.8275386999999998</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-3.75920826161799</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-3.876833</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-5.0720833333332704</v>
+      </c>
+      <c r="G5" s="9">
+        <v>-5.5637153000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>-5.3871527777778496</v>
+      </c>
+      <c r="I5" s="9">
+        <v>-6.0371528000000003</v>
+      </c>
+      <c r="J5" s="9">
+        <v>-4.8885763888888398</v>
+      </c>
+      <c r="K5" s="9">
+        <v>-5.0785764000000002</v>
+      </c>
+      <c r="L5" s="9">
+        <v>-4.7552777777778497</v>
+      </c>
+      <c r="M5" s="9">
+        <v>-5.35</v>
+      </c>
+      <c r="N5" s="9">
+        <v>-5.2682875998611101</v>
+      </c>
+      <c r="O5" s="9">
+        <v>-5.1102119000000004</v>
+      </c>
+      <c r="P5" s="9">
+        <v>-4.4182354984369701</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>-5.2902396999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>-16.7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-18.2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>-18.7</v>
+      </c>
+      <c r="H6" s="7">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="K6" s="7">
+        <v>-19.7</v>
+      </c>
+      <c r="L6" s="7">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="M6" s="7">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="N6" s="7">
+        <v>-19.2</v>
+      </c>
+      <c r="O6" s="7">
+        <v>-21.7</v>
+      </c>
+      <c r="P6" s="7">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>-19.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J7" s="7">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="M7" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="O7" s="7">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.14438040345820399</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.4401779100000001</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.0250374812593701</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.80651613</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-0.26289111389235598</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1.4541176499999999</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.80678233438485703</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.25888888999999998</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.98596938775511</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2.3725616299999999</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1.4490545050055601</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1.3899713499999999</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.74844720496894301</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2.0780089199999998</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.43094736842104903</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.52749657999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
+        <v>-6.7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-6.2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-6.7</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-7.9</v>
+      </c>
+      <c r="G9" s="7">
+        <v>-6.7</v>
+      </c>
+      <c r="H9" s="7">
+        <v>-4.2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>-7.4</v>
+      </c>
+      <c r="J9" s="7">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="K9" s="7">
+        <v>-6.2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>-3.9</v>
+      </c>
+      <c r="M9" s="7">
+        <v>-5.7</v>
+      </c>
+      <c r="N9" s="7">
+        <v>-4.7</v>
+      </c>
+      <c r="O9" s="7">
+        <v>-3.2</v>
+      </c>
+      <c r="P9" s="7">
+        <v>-5.4</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.4541176499999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.80678233438485703</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.25888888999999998</v>
+      </c>
+      <c r="J10" s="7">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2.3725616299999999</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.4490545050055601</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1.3899713499999999</v>
+      </c>
+      <c r="N10" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="O10" s="7">
+        <v>2.0780089199999998</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.43094736842104903</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.52749657999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>174.64553314121</v>
+      </c>
+      <c r="C11" s="7">
+        <v>324.89696099999998</v>
+      </c>
+      <c r="D11" s="7">
+        <v>383.06821589205401</v>
+      </c>
+      <c r="E11" s="7">
+        <v>190.33741900000001</v>
+      </c>
+      <c r="F11" s="7">
+        <v>165.58448060075</v>
+      </c>
+      <c r="G11" s="7">
+        <v>302.55607800000001</v>
+      </c>
+      <c r="H11" s="7">
+        <v>350.76419558359601</v>
+      </c>
+      <c r="I11" s="7">
+        <v>234.403175</v>
+      </c>
+      <c r="J11" s="7">
+        <v>201.84438775510199</v>
+      </c>
+      <c r="K11" s="7">
+        <v>394.644159</v>
+      </c>
+      <c r="L11" s="7">
+        <v>368.97886540600598</v>
+      </c>
+      <c r="M11" s="7">
+        <v>205.26743099999999</v>
+      </c>
+      <c r="N11" s="7">
+        <v>142.56935817805399</v>
+      </c>
+      <c r="O11" s="7">
+        <v>303.31203599999998</v>
+      </c>
+      <c r="P11" s="7">
+        <v>355.06526315789398</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>206.36114900000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1091</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1249</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2116</v>
+      </c>
+      <c r="E12" s="7">
+        <v>881</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1253</v>
+      </c>
+      <c r="G12" s="7">
+        <v>915</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2036</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1114</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1360</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1257</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1718</v>
+      </c>
+      <c r="M12" s="7">
+        <v>946</v>
+      </c>
+      <c r="N12" s="7">
+        <v>960</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1201</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1477</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.622</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.17721325648415001</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.32074796</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.42882083958021</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.31879613000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.22910562474155199</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.31828000000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.43623343848580398</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.25498253999999998</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.29631972789115602</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.29363772999999999</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.52731924360400395</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.38301719000000001</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0.42959006211180101</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.35416789999999998</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.43606736842105298</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.28152530999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
+        <v>12.319481268011501</v>
+      </c>
+      <c r="C15" s="7">
+        <v>48.994959199999997</v>
+      </c>
+      <c r="D15" s="7">
+        <v>65.712668665667096</v>
+      </c>
+      <c r="E15" s="7">
+        <v>25.775935499999999</v>
+      </c>
+      <c r="F15" s="7">
+        <v>41.510831328642702</v>
+      </c>
+      <c r="G15" s="7">
+        <v>41.783529399999999</v>
+      </c>
+      <c r="H15" s="7">
+        <v>57.298186119873797</v>
+      </c>
+      <c r="I15" s="7">
+        <v>26.879761899999998</v>
+      </c>
+      <c r="J15" s="7">
+        <v>22.9789115646259</v>
+      </c>
+      <c r="K15" s="7">
+        <v>51.222293700000002</v>
+      </c>
+      <c r="L15" s="7">
+        <v>79.507897664071194</v>
+      </c>
+      <c r="M15" s="7">
+        <v>80.617047799999995</v>
+      </c>
+      <c r="N15" s="7">
+        <v>60.1426459627329</v>
+      </c>
+      <c r="O15" s="7">
+        <v>46.095245200000001</v>
+      </c>
+      <c r="P15" s="7">
+        <v>70.296631578947398</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>75.435156000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7">
+        <v>147.5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>203.3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>377.4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>126.7</v>
+      </c>
+      <c r="F16" s="7">
+        <v>373.39400000000001</v>
+      </c>
+      <c r="G16" s="7">
+        <v>132.9</v>
+      </c>
+      <c r="H16" s="7">
+        <v>385.8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="J16" s="7">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="K16" s="7">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="L16" s="7">
+        <v>404.8</v>
+      </c>
+      <c r="M16" s="7">
+        <v>352.858</v>
+      </c>
+      <c r="N16" s="7">
+        <v>489.99799999999999</v>
+      </c>
+      <c r="O16" s="7">
+        <v>203.8</v>
+      </c>
+      <c r="P16" s="7">
+        <v>322.60000000000002</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>381.69600000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-6.04</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>-6.93</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
+        <v>-6.15</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
+        <v>-7.79</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-22.9</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>-28.2</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
+        <v>-24.2</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
+        <v>-28.9</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
+        <v>4.55</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5">
+        <v>6.45</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>66.2</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <v>65.8</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stats/general/table_general.xlsx
+++ b/stats/general/table_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_AABA903B1D31E8AAF634A930FF7A15619259AA00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFEB73AB-131D-D04C-A8AE-E7C6A6575B59}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AABA903B1DE167B3CE47A62B831A05619259AA3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76873F6E-4743-D145-BF9A-2E3F0004AC73}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="1020" windowWidth="21620" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22580" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,34 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Austroplaca_X3</t>
   </si>
   <si>
@@ -102,30 +127,13 @@
   </si>
   <si>
     <t>RH (%)</t>
-  </si>
-  <si>
-    <t>St. error  Bryum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -151,22 +159,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{65D40B97-AA3B-5C4C-814A-DDDCAD17267C}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{798B4F23-744D-024F-B655-CFCC5DF555A1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,98 +461,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>4991</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>4633</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>4165</v>
       </c>
       <c r="E2" s="1">
-        <v>5421</v>
+        <v>4810</v>
       </c>
       <c r="F2" s="1">
-        <v>4583.6666666666697</v>
-      </c>
-      <c r="G2" s="1">
-        <f>STDEV(C2:E2)/SQRT(COUNT(C2:E2))</f>
-        <v>366.47752697509105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>11.773170098837101</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>10.928691057485899</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>9.8247352157195795</v>
       </c>
       <c r="E3" s="1">
-        <v>12.78748850046</v>
+        <v>11.3462128181539</v>
       </c>
       <c r="F3" s="1">
-        <v>10.812319643966401</v>
-      </c>
-      <c r="G3" s="1">
-        <f>STDEV(C3:E3)/SQRT(COUNT(C3:E3))</f>
-        <v>0.86447651021417182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10.331894416531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>-16.6858231311775</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>-15.796933455994999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>-16.2554289623282</v>
       </c>
       <c r="E4" s="1">
@@ -560,22 +551,18 @@
       <c r="F4" s="1">
         <v>-16.441719151747002</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G3:G15" si="0">STDEV(C4:E4)/SQRT(COUNT(C4:E4))</f>
-        <v>0.19158270007838285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>-31.7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>-32.200000000000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>-33.200000000000003</v>
       </c>
       <c r="E5" s="1">
@@ -584,22 +571,18 @@
       <c r="F5" s="1">
         <v>-32.6</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.30550504633038983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>14.8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>10.8</v>
       </c>
       <c r="E6" s="1">
@@ -608,70 +591,59 @@
       <c r="F6" s="1">
         <v>13.033333333333299</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2197449642354588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>0.27170907633739599</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>1.55823440535289</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0.95527010804321899</v>
       </c>
       <c r="E7" s="1">
-        <v>-1.05598598044645</v>
+        <v>0.71814968814968905</v>
       </c>
       <c r="F7" s="1">
-        <v>0.48583951098321898</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79031868476674094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.07721806718193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>-7.9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>-6.7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>-5.4</v>
       </c>
-      <c r="E8" s="1">
-        <v>-19.2</v>
+      <c r="E8" s="1" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">E2:F15</f>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>-10.4333333333333</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3993686415717024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-6.7666666666666702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>12.8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>15</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>10.5</v>
       </c>
       <c r="E9" s="1">
@@ -680,46 +652,38 @@
       <c r="F9" s="1">
         <v>12.766666666666699</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2991450179936754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>175.083750751352</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>331.04985970213801</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>368.14645858343403</v>
       </c>
       <c r="E10" s="1">
-        <v>193.83637705220701</v>
+        <v>218.45883575883499</v>
       </c>
       <c r="F10" s="1">
-        <v>297.67756511259302</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>53.013468934741113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>305.88505134813602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11">
         <v>1360</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>1335</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>2116</v>
       </c>
       <c r="E11" s="1">
@@ -728,22 +692,18 @@
       <c r="F11" s="1">
         <v>1641</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>240.77029163360945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12">
         <v>0.8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>0.53200000000000003</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0.67300000000000004</v>
       </c>
       <c r="E12" s="1">
@@ -752,70 +712,58 @@
       <c r="F12" s="1">
         <v>0.60899999999999999</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>4.12189276910499E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="B13">
         <v>0.24633275662933299</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>0.31707252320310803</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0.45254693877551</v>
       </c>
       <c r="E13" s="1">
-        <v>0.28169083194982503</v>
+        <v>0.31100623700623697</v>
       </c>
       <c r="F13" s="1">
-        <v>0.35043676464281398</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2066725666983428E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.36020856632828502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
+        <v>18</v>
+      </c>
+      <c r="B14">
         <v>42.225001294965097</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>47.080897906324203</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>66.824273709483805</v>
       </c>
       <c r="E14" s="1">
-        <v>26.818594355285001</v>
+        <v>30.2252806652807</v>
       </c>
       <c r="F14" s="1">
-        <v>46.907921990364301</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>11.548968722334314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48.0434840936962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1">
+        <v>19</v>
+      </c>
+      <c r="B15">
         <v>489.99799999999999</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>206.6</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>404.8</v>
       </c>
       <c r="E15" s="1">
@@ -824,66 +772,88 @@
       <c r="F15" s="1">
         <v>260.566666666667</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>72.8740084742915</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-17.399999999999999</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-53.4</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6.45</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>67.5</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/stats/general/table_general.xlsx
+++ b/stats/general/table_general.xlsx
@@ -1,139 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/general/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AABA903B1DE167B3CE47A62B831A05619259AA3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76873F6E-4743-D145-BF9A-2E3F0004AC73}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22580" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Austroplaca_X3</t>
-  </si>
-  <si>
-    <t>Bryum_X1</t>
-  </si>
-  <si>
-    <t>Bryum_X2</t>
-  </si>
-  <si>
-    <t>Bryum_X4</t>
-  </si>
-  <si>
-    <t>Bryum_average</t>
-  </si>
-  <si>
-    <t>Total active hours</t>
-  </si>
-  <si>
-    <t>% active hours</t>
-  </si>
-  <si>
-    <t>Average Thallus temp</t>
-  </si>
-  <si>
-    <t>Min Thallus temp</t>
-  </si>
-  <si>
-    <t>Max Thallus temp</t>
-  </si>
-  <si>
-    <t>Average Thallus temp active</t>
-  </si>
-  <si>
-    <t>Min Thallus temp active</t>
-  </si>
-  <si>
-    <t>Max Thallus temp active</t>
-  </si>
-  <si>
-    <t>PAR</t>
-  </si>
-  <si>
-    <t>Max Par</t>
-  </si>
-  <si>
-    <t>MAX Yield</t>
-  </si>
-  <si>
-    <t>Yield</t>
-  </si>
-  <si>
-    <t>ETR</t>
-  </si>
-  <si>
-    <t>Max ETR</t>
-  </si>
-  <si>
-    <t>mean air T</t>
-  </si>
-  <si>
-    <t>min air T</t>
-  </si>
-  <si>
-    <t>max air T</t>
-  </si>
-  <si>
-    <t>RH (%)</t>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austroplaca_X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryum_X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryum_X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryum_X4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryum_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total active hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% active hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thallus temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Thallus temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Thallus temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thallus temp active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Thallus temp active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Thallus temp active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean air T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min air T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max air T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RH (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -162,23 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -460,19 +408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,369 +435,368 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>4991</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>4992</v>
+      </c>
+      <c r="C2" t="n">
         <v>4633</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>4165</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" t="n">
         <v>4810</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" t="n">
         <v>4380</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>11.773170098837101</v>
-      </c>
-      <c r="C3">
-        <v>10.928691057485899</v>
-      </c>
-      <c r="D3">
-        <v>9.8247352157195795</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" t="n">
+        <v>11.7744180012737</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.9286910574859</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.82473521571958</v>
+      </c>
+      <c r="E3" t="n">
         <v>11.3462128181539</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" t="n">
         <v>10.331894416531</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>-16.6858231311775</v>
       </c>
-      <c r="C4">
-        <v>-15.796933455994999</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>-15.796933455995</v>
+      </c>
+      <c r="D4" t="n">
         <v>-16.2554289623282</v>
       </c>
-      <c r="E4" s="1">
-        <v>-16.441719151747002</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-16.441719151747002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" t="n">
+        <v>-16.441719151747</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-16.441719151747</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>-31.7</v>
       </c>
-      <c r="C5">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="D5">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="E5" t="n">
         <v>-32.4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" t="n">
         <v>-32.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>14.8</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>10.8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" t="n">
         <v>13.3</v>
       </c>
-      <c r="F6" s="1">
-        <v>13.033333333333299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="n">
+        <v>13.0333333333333</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.27170907633739599</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>0.271709076337396</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.55823440535289</v>
       </c>
-      <c r="D7">
-        <v>0.95527010804321899</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.71814968814968905</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D7" t="n">
+        <v>0.955270108043219</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.718149688149689</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.07721806718193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>-7.9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>-6.7</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>-5.4</v>
       </c>
-      <c r="E8" s="1" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">E2:F15</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-6.7666666666666702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" t="n">
+        <v>-8.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-6.76666666666667</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>12.8</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>10.5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" t="n">
         <v>12.8</v>
       </c>
-      <c r="F9" s="1">
-        <v>12.766666666666699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="n">
+        <v>12.7666666666667</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>175.083750751352</v>
       </c>
-      <c r="C10">
-        <v>331.04985970213801</v>
-      </c>
-      <c r="D10">
-        <v>368.14645858343403</v>
-      </c>
-      <c r="E10" s="1">
-        <v>218.45883575883499</v>
-      </c>
-      <c r="F10" s="1">
-        <v>305.88505134813602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="n">
+        <v>331.049859702138</v>
+      </c>
+      <c r="D10" t="n">
+        <v>368.146458583434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>218.458835758835</v>
+      </c>
+      <c r="F10" t="n">
+        <v>305.885051348136</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1360</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>1335</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>2116</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" t="n">
         <v>1472</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" t="n">
         <v>1641</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>0.8</v>
       </c>
-      <c r="C12">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="D12">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.622</v>
       </c>
-      <c r="F12" s="1">
-        <v>0.60899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>0.24633275662933299</v>
-      </c>
-      <c r="C13">
-        <v>0.31707252320310803</v>
-      </c>
-      <c r="D13">
+      <c r="B13" t="n">
+        <v>0.246332756629333</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.317072523203108</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.45254693877551</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.31100623700623697</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.36020856632828502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="n">
+        <v>0.311006237006237</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.360208566328285</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>42.225001294965097</v>
-      </c>
-      <c r="C14">
-        <v>47.080897906324203</v>
-      </c>
-      <c r="D14">
-        <v>66.824273709483805</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B14" t="n">
+        <v>42.2250012949651</v>
+      </c>
+      <c r="C14" t="n">
+        <v>47.0808979063242</v>
+      </c>
+      <c r="D14" t="n">
+        <v>66.8242737094838</v>
+      </c>
+      <c r="E14" t="n">
         <v>30.2252806652807</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" t="n">
         <v>48.0434840936962</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>489.99799999999999</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="n">
+        <v>489.998</v>
+      </c>
+      <c r="C15" t="n">
         <v>206.6</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>404.8</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" t="n">
         <v>170.3</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" t="n">
         <v>260.566666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/stats/general/table_general.xlsx
+++ b/stats/general/table_general.xlsx
@@ -1,97 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/general/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_AABA903B1DB166A9A2D62A493F9B0E619259AA3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42F7F611-A61E-014A-92B4-87BE17FD9F09}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13120" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austroplaca_X3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryum_X1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryum_X2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryum_X4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryum_average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total active hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% active hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thallus temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Thallus temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Thallus temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thallus temp active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Thallus temp active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Thallus temp active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Par</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX Yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max ETR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean air T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min air T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max air T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH (%)</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Austroplaca_X3</t>
+  </si>
+  <si>
+    <t>Bryum_X1</t>
+  </si>
+  <si>
+    <t>Bryum_X2</t>
+  </si>
+  <si>
+    <t>Bryum_X4</t>
+  </si>
+  <si>
+    <t>Bryum_average</t>
+  </si>
+  <si>
+    <t>Total active hours</t>
+  </si>
+  <si>
+    <t>% active hours</t>
+  </si>
+  <si>
+    <t>Average Thallus temp</t>
+  </si>
+  <si>
+    <t>Min Thallus temp</t>
+  </si>
+  <si>
+    <t>Max Thallus temp</t>
+  </si>
+  <si>
+    <t>Average Thallus temp active</t>
+  </si>
+  <si>
+    <t>Min Thallus temp active</t>
+  </si>
+  <si>
+    <t>Max Thallus temp active</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>Max Par</t>
+  </si>
+  <si>
+    <t>MAX Yield</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>Max ETR</t>
+  </si>
+  <si>
+    <t>mean air T</t>
+  </si>
+  <si>
+    <t>min air T</t>
+  </si>
+  <si>
+    <t>max air T</t>
+  </si>
+  <si>
+    <t>RH (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,6 +147,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,14 +437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,368 +466,440 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>4992</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4633</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4165</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>4810</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4380</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="G2">
+        <f>STDEV(C2:E2)</f>
+        <v>333.26115885293325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>11.7744180012737</v>
       </c>
-      <c r="C3" t="n">
-        <v>10.9286910574859</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.82473521571958</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3">
+        <v>10.928691057485899</v>
+      </c>
+      <c r="D3">
+        <v>9.8247352157195795</v>
+      </c>
+      <c r="E3">
         <v>11.3462128181539</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>10.331894416531</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="G3">
+        <f t="shared" ref="G3:G19" si="0">STDEV(C3:E3)</f>
+        <v>0.7861230836527846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-16.6858231311775</v>
       </c>
-      <c r="C4" t="n">
-        <v>-15.796933455995</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>-15.796933455994999</v>
+      </c>
+      <c r="D4">
         <v>-16.2554289623282</v>
       </c>
-      <c r="E4" t="n">
-        <v>-16.441719151747</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-16.441719151747</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>-16.441719151747002</v>
+      </c>
+      <c r="F4">
+        <v>-16.441719151747002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.331830970386989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-31.7</v>
       </c>
-      <c r="C5" t="n">
-        <v>-32.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-33.2</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="D5">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="E5">
         <v>-32.4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-32.6</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.52915026221291894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>14.8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>10.8</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>13.3</v>
       </c>
-      <c r="F6" t="n">
-        <v>13.0333333333333</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="F6">
+        <v>13.033333333333299</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.1126602503320977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.271709076337396</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>0.27170907633739599</v>
+      </c>
+      <c r="C7">
         <v>1.55823440535289</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.955270108043219</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.718149688149689</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7">
+        <v>0.95527010804321899</v>
+      </c>
+      <c r="E7">
+        <v>0.71814968814968905</v>
+      </c>
+      <c r="F7">
         <v>1.07721806718193</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.43311552912954826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-7.9</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-6.7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-5.4</v>
       </c>
-      <c r="E8" t="n">
-        <v>-8.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-6.76666666666667</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="F8">
+        <v>-6.7666666666666702</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.4011899704655819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>12.8</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>10.5</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>12.8</v>
       </c>
-      <c r="F9" t="n">
-        <v>12.7666666666667</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="F9">
+        <v>12.766666666666699</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2.250185177565029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>175.083750751352</v>
       </c>
-      <c r="C10" t="n">
-        <v>331.049859702138</v>
-      </c>
-      <c r="D10" t="n">
-        <v>368.146458583434</v>
-      </c>
-      <c r="E10" t="n">
-        <v>218.458835758835</v>
-      </c>
-      <c r="F10" t="n">
-        <v>305.885051348136</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>331.04985970213801</v>
+      </c>
+      <c r="D10">
+        <v>368.14645858343403</v>
+      </c>
+      <c r="E10">
+        <v>218.45883575883499</v>
+      </c>
+      <c r="F10">
+        <v>305.88505134813602</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>77.952208380135943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1360</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1335</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2116</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1472</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1641</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>417.0263780625873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.8</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="C12">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E12">
         <v>0.622</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.609</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="F12">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>7.1393276994406132E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.246332756629333</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.317072523203108</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13">
+        <v>0.24633275662933299</v>
+      </c>
+      <c r="C13">
+        <v>0.31707252320310803</v>
+      </c>
+      <c r="D13">
         <v>0.45254693877551</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.311006237006237</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.360208566328285</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13">
+        <v>0.31100623700623697</v>
+      </c>
+      <c r="F13">
+        <v>0.36020856632828502</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>8.0024878798454963E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="n">
-        <v>42.2250012949651</v>
-      </c>
-      <c r="C14" t="n">
-        <v>47.0808979063242</v>
-      </c>
-      <c r="D14" t="n">
-        <v>66.8242737094838</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="B14">
+        <v>42.225001294965097</v>
+      </c>
+      <c r="C14">
+        <v>47.080897906324203</v>
+      </c>
+      <c r="D14">
+        <v>66.824273709483805</v>
+      </c>
+      <c r="E14">
         <v>30.2252806652807</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>48.0434840936962</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>18.318474338451232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="n">
-        <v>489.998</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15">
+        <v>489.99799999999999</v>
+      </c>
+      <c r="C15">
         <v>206.6</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>404.8</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>170.3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>260.566666666667</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>126.22148522867779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/stats/general/table_general.xlsx
+++ b/stats/general/table_general.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AABA903B1DB166A9A2D62A493F9B0E619259AA3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42F7F611-A61E-014A-92B4-87BE17FD9F09}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FA5E503B1D7167B352D6B4469F1917619259E44F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D086E21-60B0-FB44-8ED2-1B1F977AC37F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13120" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13120" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Category</t>
   </si>
@@ -56,46 +43,109 @@
     <t>Total active hours</t>
   </si>
   <si>
+    <t>3891.66666666667</t>
+  </si>
+  <si>
     <t>% active hours</t>
   </si>
   <si>
-    <t>Average Thallus temp</t>
-  </si>
-  <si>
-    <t>Min Thallus temp</t>
-  </si>
-  <si>
-    <t>Max Thallus temp</t>
-  </si>
-  <si>
-    <t>Average Thallus temp active</t>
-  </si>
-  <si>
-    <t>Min Thallus temp active</t>
-  </si>
-  <si>
-    <t>Max Thallus temp active</t>
-  </si>
-  <si>
-    <t>PAR</t>
+    <t>11.69511559883</t>
+  </si>
+  <si>
+    <t>Average TT</t>
+  </si>
+  <si>
+    <t>-16.1137426373358</t>
+  </si>
+  <si>
+    <t>Sd TT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Min TT</t>
+  </si>
+  <si>
+    <t>-30.1</t>
+  </si>
+  <si>
+    <t>Max TT</t>
+  </si>
+  <si>
+    <t>12.7666666666667</t>
+  </si>
+  <si>
+    <t>Average TT active</t>
+  </si>
+  <si>
+    <t>1.09347970310404</t>
+  </si>
+  <si>
+    <t>Sd TT active</t>
+  </si>
+  <si>
+    <t>Min TT active</t>
+  </si>
+  <si>
+    <t>-6.5</t>
+  </si>
+  <si>
+    <t>Max TT active</t>
+  </si>
+  <si>
+    <t>Mean PAR</t>
+  </si>
+  <si>
+    <t>308.323755698973</t>
+  </si>
+  <si>
+    <t>Sd. PAR</t>
   </si>
   <si>
     <t>Max Par</t>
   </si>
   <si>
+    <t>1641</t>
+  </si>
+  <si>
     <t>MAX Yield</t>
   </si>
   <si>
-    <t>Yield</t>
-  </si>
-  <si>
-    <t>ETR</t>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>Mean Yield</t>
+  </si>
+  <si>
+    <t>0.360501472096516</t>
+  </si>
+  <si>
+    <t>Sd. Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean ETR</t>
+  </si>
+  <si>
+    <t>47.9360117415553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Dev. ETR </t>
   </si>
   <si>
     <t>Max ETR</t>
   </si>
   <si>
-    <t>mean air T</t>
+    <t>260.566666666667</t>
+  </si>
+  <si>
+    <t>Mean air T</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Sd. air T</t>
   </si>
   <si>
     <t>min air T</t>
@@ -104,7 +154,10 @@
     <t>max air T</t>
   </si>
   <si>
-    <t>RH (%)</t>
+    <t>mean RH (%)</t>
+  </si>
+  <si>
+    <t>Sd. RH</t>
   </si>
 </sst>
 </file>
@@ -140,8 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G19"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,436 +520,504 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4992</v>
+        <v>4580</v>
       </c>
       <c r="C2">
-        <v>4633</v>
+        <v>4029</v>
       </c>
       <c r="D2">
-        <v>4165</v>
+        <v>3762</v>
       </c>
       <c r="E2">
-        <v>4810</v>
-      </c>
-      <c r="F2">
-        <v>4380</v>
-      </c>
-      <c r="G2">
-        <f>STDEV(C2:E2)</f>
-        <v>333.26115885293325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>11.7744180012737</v>
+        <v>13.7636735184517</v>
       </c>
       <c r="C3">
-        <v>10.928691057485899</v>
+        <v>12.107825459790799</v>
       </c>
       <c r="D3">
-        <v>9.8247352157195795</v>
+        <v>11.3054453660296</v>
       </c>
       <c r="E3">
-        <v>11.3462128181539</v>
-      </c>
-      <c r="F3">
-        <v>10.331894416531</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G19" si="0">STDEV(C3:E3)</f>
-        <v>0.7861230836527846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12.4744560644308</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-16.6858231311775</v>
+        <v>-16.5723103738428</v>
       </c>
       <c r="C4">
-        <v>-15.796933455994999</v>
+        <v>-15.370233802140101</v>
       </c>
       <c r="D4">
-        <v>-16.2554289623282</v>
+        <v>-15.9903383820172</v>
       </c>
       <c r="E4">
-        <v>-16.441719151747002</v>
-      </c>
-      <c r="F4">
-        <v>-16.441719151747002</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.331830970386989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-16.1137426373358</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9.2250061406684001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.5282575804092193</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.8952098367751997</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.6990633026699609</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>-31.7</v>
       </c>
-      <c r="C5">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="D5">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="E5">
-        <v>-32.4</v>
-      </c>
-      <c r="F5">
-        <v>-32.6</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.52915026221291894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>14.8</v>
-      </c>
       <c r="C6">
+        <v>-27.9</v>
+      </c>
+      <c r="D6">
+        <v>-31.7</v>
+      </c>
+      <c r="E6">
+        <v>-30.7</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>10.8</v>
-      </c>
-      <c r="E6">
-        <v>13.3</v>
-      </c>
-      <c r="F6">
-        <v>13.033333333333299</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>2.1126602503320977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.27170907633739599</v>
+        <v>12.8</v>
       </c>
       <c r="C7">
-        <v>1.55823440535289</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>0.95527010804321899</v>
+        <v>10.5</v>
       </c>
       <c r="E7">
-        <v>0.71814968814968905</v>
-      </c>
-      <c r="F7">
-        <v>1.07721806718193</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.43311552912954826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12.8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8">
+        <v>0.24997816593886699</v>
+      </c>
+      <c r="C8">
+        <v>1.47041449491189</v>
+      </c>
+      <c r="D8">
+        <v>1.04938862307283</v>
+      </c>
+      <c r="E8">
+        <v>0.76063599132739201</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>3.1908894522305999</v>
+      </c>
+      <c r="C9">
+        <v>3.2016269994865798</v>
+      </c>
+      <c r="D9">
+        <v>2.4064790897977701</v>
+      </c>
+      <c r="E9">
+        <v>2.8352449553544901</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
         <v>-7.9</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>-6.7</v>
       </c>
-      <c r="D8">
-        <v>-5.4</v>
-      </c>
-      <c r="E8">
-        <v>-8.1999999999999993</v>
-      </c>
-      <c r="F8">
-        <v>-6.7666666666666702</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1.4011899704655819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D10">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="E10">
+        <v>-7.9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>12.8</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>10.5</v>
+      </c>
+      <c r="E11">
+        <v>12.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>178.199126637554</v>
+      </c>
+      <c r="C12">
+        <v>332.18068999751802</v>
+      </c>
+      <c r="D12">
+        <v>372.62387028176499</v>
+      </c>
+      <c r="E12">
+        <v>220.166706817635</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>193.34137811181</v>
+      </c>
+      <c r="C13">
+        <v>268.72895795672702</v>
+      </c>
+      <c r="D13">
+        <v>345.17091580997698</v>
+      </c>
+      <c r="E13">
+        <v>202.08170162053401</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>12.8</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>10.5</v>
-      </c>
-      <c r="E9">
-        <v>12.8</v>
-      </c>
-      <c r="F9">
-        <v>12.766666666666699</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>2.250185177565029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>175.083750751352</v>
-      </c>
-      <c r="C10">
-        <v>331.04985970213801</v>
-      </c>
-      <c r="D10">
-        <v>368.14645858343403</v>
-      </c>
-      <c r="E10">
-        <v>218.45883575883499</v>
-      </c>
-      <c r="F10">
-        <v>305.88505134813602</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>77.952208380135943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
         <v>1360</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>1335</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>2116</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>1472</v>
       </c>
-      <c r="F11">
-        <v>1641</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>417.0263780625873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>0.8</v>
-      </c>
-      <c r="C12">
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>0.625</v>
+      </c>
+      <c r="C15">
         <v>0.53200000000000003</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>0.622</v>
       </c>
-      <c r="F12">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>7.1393276994406132E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>0.24633275662933299</v>
-      </c>
-      <c r="C13">
-        <v>0.31707252320310803</v>
-      </c>
-      <c r="D13">
-        <v>0.45254693877551</v>
-      </c>
-      <c r="E13">
-        <v>0.31100623700623697</v>
-      </c>
-      <c r="F13">
-        <v>0.36020856632828502</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>8.0024878798454963E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>42.225001294965097</v>
-      </c>
-      <c r="C14">
-        <v>47.080897906324203</v>
-      </c>
-      <c r="D14">
-        <v>66.824273709483805</v>
-      </c>
-      <c r="E14">
-        <v>30.2252806652807</v>
-      </c>
-      <c r="F14">
-        <v>48.0434840936962</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>18.318474338451232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>489.99799999999999</v>
-      </c>
-      <c r="C15">
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.22929493195131001</v>
+      </c>
+      <c r="C16">
+        <v>0.308938446264582</v>
+      </c>
+      <c r="D16">
+        <v>0.45601887293992599</v>
+      </c>
+      <c r="E16">
+        <v>0.31654709708503997</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0.10934910461068501</v>
+      </c>
+      <c r="C17">
+        <v>0.115386474141318</v>
+      </c>
+      <c r="D17">
+        <v>0.10054794528345</v>
+      </c>
+      <c r="E17">
+        <v>0.11258909675914799</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>40.614236345670498</v>
+      </c>
+      <c r="C18">
+        <v>46.650682551501603</v>
+      </c>
+      <c r="D18">
+        <v>67.248511430090403</v>
+      </c>
+      <c r="E18">
+        <v>29.908841243074001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>49.484365071199498</v>
+      </c>
+      <c r="C19">
+        <v>39.603457622612801</v>
+      </c>
+      <c r="D19">
+        <v>64.0321063209702</v>
+      </c>
+      <c r="E19">
+        <v>27.851691845937498</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>373.39400000000001</v>
+      </c>
+      <c r="C20">
         <v>206.6</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>404.8</v>
       </c>
-      <c r="E15">
+      <c r="E20">
         <v>170.3</v>
       </c>
-      <c r="F15">
-        <v>260.566666666667</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>126.22148522867779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
